--- a/C21__C30_Projects/C22_AttendanceQR_FLASK_22project/attendance.xlsx
+++ b/C21__C30_Projects/C22_AttendanceQR_FLASK_22project/attendance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,7 +31,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
         <bgColor rgb="00d1fae5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00fee2e2"/>
-        <bgColor rgb="00fee2e2"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -69,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -78,9 +72,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Islam Duishobaev</t>
+          <t>Ислам</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -509,39 +500,39 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2025-11-06 00:42:48</t>
+          <t>2025-11-20 10:46:11</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>127.0.0.1</t>
+          <t>192.168.190.240</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>42.70777124273817, 74.74775699136086</t>
+          <t>Не определено</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Бишкек-Исык-Ата, Горная Маёвка, Аламудунский район, Киргизия</t>
+          <t>Не определено</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Islam Duishobaev</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Ушёл</t>
+          <t>islam</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Пришёл</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2025-11-06 00:43:54</t>
+          <t>2025-11-20 10:46:27</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -551,12 +542,44 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>42.70777124273817, 74.74775699136086</t>
+          <t>42.876983402563326, 74.58560264611494</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Бишкек-Исык-Ата, Горная Маёвка, Аламудунский район, Киргизия</t>
+          <t>Политехнический колледж, 255, Чуй проспект, Ленинский район, город Бишкек, 720001, Киргизия</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Имида</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Пришёл</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2025-11-20 10:48:59</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>192.168.190.240</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Не определено</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Не определено</t>
         </is>
       </c>
     </row>
